--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23000" windowHeight="11060" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Notes:</t>
   </si>
@@ -76,6 +76,9 @@
     <t>of the default amount or the amount specified here by the user.</t>
   </si>
   <si>
+    <t>lignite</t>
+  </si>
+  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -85,7 +88,16 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>coal to gas</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -129,11 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,51 +456,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -501,19 +516,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -623,9 +639,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -771,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -919,305 +935,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1363,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2103,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2251,9 +2267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2399,9 +2415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2544,10 +2560,350 @@
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257288C8-88AB-4482-B0B3-D67DC1B2D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,10 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,13 +560,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,147 +1286,147 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1384,147 +1434,147 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1532,147 +1582,147 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -1680,147 +1730,147 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK14" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -1828,147 +1878,147 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -2420,147 +2470,147 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2794,112 +2844,147 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f>B17</f>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" ref="D17:AK17" si="3">C17</f>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257288C8-88AB-4482-B0B3-D67DC1B2D04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FB1B8-A1D5-4516-AFEC-9116358A3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -502,53 +502,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -566,17 +566,17 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +689,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -709,8 +709,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
@@ -837,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -857,12 +856,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1133,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FB1B8-A1D5-4516-AFEC-9116358A3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961EB8B9-DC61-441C-B68B-619384BE9024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
+    <sheet name="Capacity" sheetId="3" r:id="rId2"/>
+    <sheet name="2510001901-eng" sheetId="4" r:id="rId3"/>
+    <sheet name="calcs" sheetId="5" r:id="rId4"/>
+    <sheet name="BGDPbES" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Notes:</t>
   </si>
@@ -110,13 +113,218 @@
   </si>
   <si>
     <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[hard coal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[natural gas nonpeaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[nuclear es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[hydro es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[onshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[solar PV es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[solar thermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[biomass es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[geothermal es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[petroleum es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[natural gas peaker es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[lignite es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[offshore wind es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[crude oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[heavy or residual fuel oil es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Output Electricity Generation Capacity[municipal solid waste es] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=2510001901</t>
+  </si>
+  <si>
+    <t>How to cite: Statistics Canada. Table 25-10-0019-01  Electricity from fuels, annual generation by electric utility thermal plants</t>
+  </si>
+  <si>
+    <t>The amount of electricity generated when waste heat is recaptured to run a steam generator.</t>
+  </si>
+  <si>
+    <t>Other gaseous fuels types include refinery fuel gas and any other fuels not specified above.</t>
+  </si>
+  <si>
+    <t>A mixture of hydrocarbons (principally methane) and small quantities of various hydrocarbons existing in the gaseous phase or in solution with crude oil in underground reservoirs.</t>
+  </si>
+  <si>
+    <t>Total gas include natural gas, coke oven gas, methane and other gaseous fuels.</t>
+  </si>
+  <si>
+    <t>Other liquid fuels types include biodiesel, ethanol and other biofuel and any other fuels not specified above.</t>
+  </si>
+  <si>
+    <t>Total petroleum products include light fuel oil, total heavy fuel oil and diesel.</t>
+  </si>
+  <si>
+    <t>Total liquids include total petroleum products, propane, spent pulping liquor and other liquid fuels.</t>
+  </si>
+  <si>
+    <t>Other solid fuels include agriculture biomass, other biomass (food processing), other biomass (type unknown) and municipal and other waste and any other fuels not specified above.</t>
+  </si>
+  <si>
+    <t>Wood and wood energy used as fuel, including round wood (cord wood), lignin, wood scraps from furniture and window frame manufacturing, wood chips, bark, sawdust, forest residues, charcoal and pulp waste.</t>
+  </si>
+  <si>
+    <t>On March 21st 2016, provincial and territorial values for fuel types were corrected for reference years 2011 to 2014.</t>
+  </si>
+  <si>
+    <t>Total solids include total bituminous coal, total subbituminous coal, lignite, wood, petroleum coke and other solid fuels.</t>
+  </si>
+  <si>
+    <t>Footnotes:</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Table Corrections:</t>
+  </si>
+  <si>
+    <t>Steam from waste heat 11</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Other gaseous fuels 10</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Coke oven gas</t>
+  </si>
+  <si>
+    <t>Natural gas 9</t>
+  </si>
+  <si>
+    <t>Total gas 8</t>
+  </si>
+  <si>
+    <t>Other liquid fuels 7</t>
+  </si>
+  <si>
+    <t>Spent pulping liquor</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Total petroleum products 6</t>
+  </si>
+  <si>
+    <t>Total liquids 5</t>
+  </si>
+  <si>
+    <t>Other solid fuels 4</t>
+  </si>
+  <si>
+    <t>Petroleum coke</t>
+  </si>
+  <si>
+    <t>Wood 3</t>
+  </si>
+  <si>
+    <t>Total coal</t>
+  </si>
+  <si>
+    <t>Total solids 1</t>
+  </si>
+  <si>
+    <t>Megawatt hours</t>
+  </si>
+  <si>
+    <t>Electricity generated from fuels</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Geography: Canada, Province or territory</t>
+  </si>
+  <si>
+    <t>Release date: 2022-11-16</t>
+  </si>
+  <si>
+    <t>Table: 25-10-0019-01 (formerly CANSIM 127-0006)</t>
+  </si>
+  <si>
+    <t>Frequency: Annual</t>
+  </si>
+  <si>
+    <t>Electricity from fuels, annual generation by electric utility thermal plants c 1 2</t>
+  </si>
+  <si>
+    <t>MWHS</t>
+  </si>
+  <si>
+    <t>Calc CF</t>
+  </si>
+  <si>
+    <t>Calc total potential gen</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (peak time capacity factors)</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +340,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -162,8 +384,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,49 +735,49 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -560,6 +789,2915 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B2878E-859D-404C-82D3-4A081656B3BA}">
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>8.9290000000000003</v>
+      </c>
+      <c r="D2">
+        <v>8.5289999999999999</v>
+      </c>
+      <c r="E2">
+        <v>7.3789999999999996</v>
+      </c>
+      <c r="F2">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="G2">
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="H2">
+        <v>3.0790000000000002</v>
+      </c>
+      <c r="I2">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="J2">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="K2">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="L2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="M2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="N2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="O2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="P2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="R2">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="S2">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="T2">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="U2">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="V2">
+        <v>2.0289999999999999</v>
+      </c>
+      <c r="W2">
+        <v>1.879</v>
+      </c>
+      <c r="X2">
+        <v>1.879</v>
+      </c>
+      <c r="Y2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AD2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="D3">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="E3">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="F3">
+        <v>15.648999999999999</v>
+      </c>
+      <c r="G3">
+        <v>17.998999999999999</v>
+      </c>
+      <c r="H3">
+        <v>18.899000000000001</v>
+      </c>
+      <c r="I3">
+        <v>20.349</v>
+      </c>
+      <c r="J3">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="K3">
+        <v>21.699000000000002</v>
+      </c>
+      <c r="L3">
+        <v>22.149000000000001</v>
+      </c>
+      <c r="M3">
+        <v>22.349</v>
+      </c>
+      <c r="N3">
+        <v>22.599</v>
+      </c>
+      <c r="O3">
+        <v>22.899000000000001</v>
+      </c>
+      <c r="P3">
+        <v>22.899000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>22.649000000000001</v>
+      </c>
+      <c r="R3">
+        <v>22.649000000000001</v>
+      </c>
+      <c r="S3">
+        <v>22.649000000000001</v>
+      </c>
+      <c r="T3">
+        <v>22.649000000000001</v>
+      </c>
+      <c r="U3">
+        <v>22.349</v>
+      </c>
+      <c r="V3">
+        <v>22.349</v>
+      </c>
+      <c r="W3">
+        <v>22.048999999999999</v>
+      </c>
+      <c r="X3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="Y3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>22.199000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="D4">
+        <v>12.837999999999999</v>
+      </c>
+      <c r="E4">
+        <v>12.837999999999999</v>
+      </c>
+      <c r="F4">
+        <v>12.337999999999999</v>
+      </c>
+      <c r="G4">
+        <v>10.837999999999999</v>
+      </c>
+      <c r="H4">
+        <v>10.837999999999999</v>
+      </c>
+      <c r="I4">
+        <v>9.3379999999999992</v>
+      </c>
+      <c r="J4">
+        <v>8.3379999999999992</v>
+      </c>
+      <c r="K4">
+        <v>8.3379999999999992</v>
+      </c>
+      <c r="L4">
+        <v>8.3379999999999992</v>
+      </c>
+      <c r="M4">
+        <v>7.8380000000000001</v>
+      </c>
+      <c r="N4">
+        <v>7.8380000000000001</v>
+      </c>
+      <c r="O4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="P4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="R4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="S4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="T4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="U4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="V4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="W4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="X4">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AB4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>6.8380000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>6.8380000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="D5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="E5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="F5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="G5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="H5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="I5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="J5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="K5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="L5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="M5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="N5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="O5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="P5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="Q5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="R5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="S5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="T5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="U5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="V5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="W5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="X5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="Y5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AA5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AC5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AD5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AF5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>81.382999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>81.382999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>12.782</v>
+      </c>
+      <c r="D6">
+        <v>12.782</v>
+      </c>
+      <c r="E6">
+        <v>12.782</v>
+      </c>
+      <c r="F6">
+        <v>12.782</v>
+      </c>
+      <c r="G6">
+        <v>15.686999999999999</v>
+      </c>
+      <c r="H6">
+        <v>17.297000000000001</v>
+      </c>
+      <c r="I6">
+        <v>20.611999999999998</v>
+      </c>
+      <c r="J6">
+        <v>23.132000000000001</v>
+      </c>
+      <c r="K6">
+        <v>24.887</v>
+      </c>
+      <c r="L6">
+        <v>27.036999999999999</v>
+      </c>
+      <c r="M6">
+        <v>28.282</v>
+      </c>
+      <c r="N6">
+        <v>30.532</v>
+      </c>
+      <c r="O6">
+        <v>33.722000000000001</v>
+      </c>
+      <c r="P6">
+        <v>33.722000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>35.171999999999997</v>
+      </c>
+      <c r="R6">
+        <v>35.171999999999997</v>
+      </c>
+      <c r="S6">
+        <v>35.307000000000002</v>
+      </c>
+      <c r="T6">
+        <v>35.307000000000002</v>
+      </c>
+      <c r="U6">
+        <v>37.372</v>
+      </c>
+      <c r="V6">
+        <v>38.146999999999998</v>
+      </c>
+      <c r="W6">
+        <v>38.712000000000003</v>
+      </c>
+      <c r="X6">
+        <v>42.862000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="Z6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>45.536999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>47.031999999999996</v>
+      </c>
+      <c r="AG6">
+        <v>47.896999999999998</v>
+      </c>
+      <c r="AH6">
+        <v>49.127000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="D7">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="H7">
+        <v>4.6840000000000002</v>
+      </c>
+      <c r="I7">
+        <v>6.2789999999999999</v>
+      </c>
+      <c r="J7">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="K7">
+        <v>8.6289999999999996</v>
+      </c>
+      <c r="L7">
+        <v>9.9390000000000001</v>
+      </c>
+      <c r="M7">
+        <v>10.763999999999999</v>
+      </c>
+      <c r="N7">
+        <v>12.194000000000001</v>
+      </c>
+      <c r="O7">
+        <v>14.089</v>
+      </c>
+      <c r="P7">
+        <v>14.089</v>
+      </c>
+      <c r="Q7">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="R7">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="S7">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="T7">
+        <v>14.944000000000001</v>
+      </c>
+      <c r="U7">
+        <v>16.059000000000001</v>
+      </c>
+      <c r="V7">
+        <v>16.474</v>
+      </c>
+      <c r="W7">
+        <v>16.774000000000001</v>
+      </c>
+      <c r="X7">
+        <v>18.949000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>20.169</v>
+      </c>
+      <c r="Z7">
+        <v>20.169</v>
+      </c>
+      <c r="AA7">
+        <v>20.169</v>
+      </c>
+      <c r="AB7">
+        <v>20.169</v>
+      </c>
+      <c r="AC7">
+        <v>20.169</v>
+      </c>
+      <c r="AD7">
+        <v>20.169</v>
+      </c>
+      <c r="AE7">
+        <v>20.318999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>20.978999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>21.353999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>21.879000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>1E-3</v>
+      </c>
+      <c r="G8">
+        <v>1E-3</v>
+      </c>
+      <c r="H8">
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>1E-3</v>
+      </c>
+      <c r="J8">
+        <v>1E-3</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+      <c r="L8">
+        <v>1E-3</v>
+      </c>
+      <c r="M8">
+        <v>1E-3</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8">
+        <v>1E-3</v>
+      </c>
+      <c r="P8">
+        <v>1E-3</v>
+      </c>
+      <c r="Q8">
+        <v>1E-3</v>
+      </c>
+      <c r="R8">
+        <v>1E-3</v>
+      </c>
+      <c r="S8">
+        <v>1E-3</v>
+      </c>
+      <c r="T8">
+        <v>1E-3</v>
+      </c>
+      <c r="U8">
+        <v>1E-3</v>
+      </c>
+      <c r="V8">
+        <v>1E-3</v>
+      </c>
+      <c r="W8">
+        <v>1E-3</v>
+      </c>
+      <c r="X8">
+        <v>1E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1E-3</v>
+      </c>
+      <c r="Z8">
+        <v>1E-3</v>
+      </c>
+      <c r="AA8">
+        <v>1E-3</v>
+      </c>
+      <c r="AB8">
+        <v>1E-3</v>
+      </c>
+      <c r="AC8">
+        <v>1E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1E-3</v>
+      </c>
+      <c r="AE8">
+        <v>1E-3</v>
+      </c>
+      <c r="AF8">
+        <v>1E-3</v>
+      </c>
+      <c r="AG8">
+        <v>1E-3</v>
+      </c>
+      <c r="AH8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H9">
+        <v>2.29</v>
+      </c>
+      <c r="I9">
+        <v>2.31</v>
+      </c>
+      <c r="J9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="U9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="V9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="X9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AB9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AC9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.02</v>
+      </c>
+      <c r="H10">
+        <v>0.03</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.08</v>
+      </c>
+      <c r="M10">
+        <v>0.08</v>
+      </c>
+      <c r="N10">
+        <v>0.08</v>
+      </c>
+      <c r="O10">
+        <v>0.09</v>
+      </c>
+      <c r="P10">
+        <v>0.09</v>
+      </c>
+      <c r="Q10">
+        <v>0.09</v>
+      </c>
+      <c r="R10">
+        <v>0.09</v>
+      </c>
+      <c r="S10">
+        <v>0.09</v>
+      </c>
+      <c r="T10">
+        <v>0.09</v>
+      </c>
+      <c r="U10">
+        <v>0.09</v>
+      </c>
+      <c r="V10">
+        <v>0.09</v>
+      </c>
+      <c r="W10">
+        <v>0.09</v>
+      </c>
+      <c r="X10">
+        <v>0.09</v>
+      </c>
+      <c r="Y10">
+        <v>0.09</v>
+      </c>
+      <c r="Z10">
+        <v>0.09</v>
+      </c>
+      <c r="AA10">
+        <v>0.09</v>
+      </c>
+      <c r="AB10">
+        <v>0.09</v>
+      </c>
+      <c r="AC10">
+        <v>0.09</v>
+      </c>
+      <c r="AD10">
+        <v>0.09</v>
+      </c>
+      <c r="AE10">
+        <v>0.09</v>
+      </c>
+      <c r="AF10">
+        <v>0.09</v>
+      </c>
+      <c r="AG10">
+        <v>0.09</v>
+      </c>
+      <c r="AH10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="D11">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="E11">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="F11">
+        <v>3.165</v>
+      </c>
+      <c r="G11">
+        <v>3.165</v>
+      </c>
+      <c r="H11">
+        <v>3.165</v>
+      </c>
+      <c r="I11">
+        <v>3.165</v>
+      </c>
+      <c r="J11">
+        <v>3.165</v>
+      </c>
+      <c r="K11">
+        <v>3.165</v>
+      </c>
+      <c r="L11">
+        <v>3.165</v>
+      </c>
+      <c r="M11">
+        <v>3.165</v>
+      </c>
+      <c r="N11">
+        <v>3.165</v>
+      </c>
+      <c r="O11">
+        <v>3.165</v>
+      </c>
+      <c r="P11">
+        <v>3.165</v>
+      </c>
+      <c r="Q11">
+        <v>3.165</v>
+      </c>
+      <c r="R11">
+        <v>3.165</v>
+      </c>
+      <c r="S11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="T11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="U11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="V11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="W11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="X11">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>2.0649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="D12">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="E12">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="F12">
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="G12">
+        <v>7.2779999999999996</v>
+      </c>
+      <c r="H12">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="I12">
+        <v>7.5780000000000003</v>
+      </c>
+      <c r="J12">
+        <v>7.6779999999999999</v>
+      </c>
+      <c r="K12">
+        <v>7.8280000000000003</v>
+      </c>
+      <c r="L12">
+        <v>9.4779999999999998</v>
+      </c>
+      <c r="M12">
+        <v>11.678000000000001</v>
+      </c>
+      <c r="N12">
+        <v>12.827999999999999</v>
+      </c>
+      <c r="O12">
+        <v>14.077999999999999</v>
+      </c>
+      <c r="P12">
+        <v>15.077999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>15.978</v>
+      </c>
+      <c r="R12">
+        <v>16.777999999999999</v>
+      </c>
+      <c r="S12">
+        <v>17.728000000000002</v>
+      </c>
+      <c r="T12">
+        <v>18.478000000000002</v>
+      </c>
+      <c r="U12">
+        <v>20.077999999999999</v>
+      </c>
+      <c r="V12">
+        <v>20.777999999999999</v>
+      </c>
+      <c r="W12">
+        <v>21.728000000000002</v>
+      </c>
+      <c r="X12">
+        <v>21.728000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>21.978000000000002</v>
+      </c>
+      <c r="Z12">
+        <v>21.978000000000002</v>
+      </c>
+      <c r="AA12">
+        <v>22.777999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>23.928000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>24.527999999999999</v>
+      </c>
+      <c r="AD12">
+        <v>25.027999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>25.728000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>25.827999999999999</v>
+      </c>
+      <c r="AG12">
+        <v>26.378</v>
+      </c>
+      <c r="AH12">
+        <v>26.678000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.06</v>
+      </c>
+      <c r="H14">
+        <v>0.09</v>
+      </c>
+      <c r="I14">
+        <v>0.155</v>
+      </c>
+      <c r="J14">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.24</v>
+      </c>
+      <c r="L14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.31</v>
+      </c>
+      <c r="N14">
+        <v>0.35</v>
+      </c>
+      <c r="O14">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="P14">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="Q14">
+        <v>0.43</v>
+      </c>
+      <c r="R14">
+        <v>0.43</v>
+      </c>
+      <c r="S14">
+        <v>0.43</v>
+      </c>
+      <c r="T14">
+        <v>0.43</v>
+      </c>
+      <c r="U14">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="V14">
+        <v>0.48</v>
+      </c>
+      <c r="W14">
+        <v>0.49</v>
+      </c>
+      <c r="X14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AC14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AE14">
+        <v>0.62</v>
+      </c>
+      <c r="AF14">
+        <v>0.65</v>
+      </c>
+      <c r="AG14">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AH14">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.08</v>
+      </c>
+      <c r="H17">
+        <v>0.15</v>
+      </c>
+      <c r="I17">
+        <v>0.21</v>
+      </c>
+      <c r="J17">
+        <v>0.26</v>
+      </c>
+      <c r="K17">
+        <v>0.31</v>
+      </c>
+      <c r="L17">
+        <v>0.35</v>
+      </c>
+      <c r="M17">
+        <v>0.38</v>
+      </c>
+      <c r="N17">
+        <v>0.4</v>
+      </c>
+      <c r="O17">
+        <v>0.42</v>
+      </c>
+      <c r="P17">
+        <v>0.42</v>
+      </c>
+      <c r="Q17">
+        <v>0.44</v>
+      </c>
+      <c r="R17">
+        <v>0.44</v>
+      </c>
+      <c r="S17">
+        <v>0.44</v>
+      </c>
+      <c r="T17">
+        <v>0.44</v>
+      </c>
+      <c r="U17">
+        <v>0.45</v>
+      </c>
+      <c r="V17">
+        <v>0.46</v>
+      </c>
+      <c r="W17">
+        <v>0.46</v>
+      </c>
+      <c r="X17">
+        <v>0.47</v>
+      </c>
+      <c r="Y17">
+        <v>0.48</v>
+      </c>
+      <c r="Z17">
+        <v>0.48</v>
+      </c>
+      <c r="AA17">
+        <v>0.48</v>
+      </c>
+      <c r="AB17">
+        <v>0.48</v>
+      </c>
+      <c r="AC17">
+        <v>0.48</v>
+      </c>
+      <c r="AD17">
+        <v>0.48</v>
+      </c>
+      <c r="AE17">
+        <v>0.48</v>
+      </c>
+      <c r="AF17">
+        <v>0.48</v>
+      </c>
+      <c r="AG17">
+        <v>0.48</v>
+      </c>
+      <c r="AH17">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A1E322-D67D-43E7-8FAF-738EF6A1F9B9}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5">
+        <v>59831365</v>
+      </c>
+      <c r="C12" s="5">
+        <v>51561428</v>
+      </c>
+      <c r="D12" s="5">
+        <v>48458262</v>
+      </c>
+      <c r="E12" s="5">
+        <v>39626710</v>
+      </c>
+      <c r="F12" s="5">
+        <v>35567978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="6">
+        <v>55617792</v>
+      </c>
+      <c r="C13" s="6">
+        <v>47040108</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44534666</v>
+      </c>
+      <c r="E13" s="6">
+        <v>35903677</v>
+      </c>
+      <c r="F13" s="6">
+        <v>32019134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2166853</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2206768</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1884173</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2108402</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2307444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1834116</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2135103</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1846248</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1415622</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1043835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="5">
+        <v>212604</v>
+      </c>
+      <c r="C16" s="5">
+        <v>179449</v>
+      </c>
+      <c r="D16" s="5">
+        <v>193175</v>
+      </c>
+      <c r="E16" s="5">
+        <v>199009</v>
+      </c>
+      <c r="F16" s="5">
+        <v>197565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3053163</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2747470</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2398291</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2136066</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2063452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3053163</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2747470</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2398291</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2135995</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2063400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+      <c r="F19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5">
+        <v>36224505</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44428371</v>
+      </c>
+      <c r="D22" s="5">
+        <v>46817110</v>
+      </c>
+      <c r="E22" s="5">
+        <v>48753828</v>
+      </c>
+      <c r="F22" s="5">
+        <v>55389088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6">
+        <v>35241667</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43484153</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45776117</v>
+      </c>
+      <c r="E23" s="6">
+        <v>47775694</v>
+      </c>
+      <c r="F23" s="6">
+        <v>54390507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="5">
+        <v>357984</v>
+      </c>
+      <c r="C25" s="5">
+        <v>307647</v>
+      </c>
+      <c r="D25" s="5">
+        <v>297153</v>
+      </c>
+      <c r="E25" s="5">
+        <v>278550</v>
+      </c>
+      <c r="F25" s="5">
+        <v>278410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5">
+        <v>624854</v>
+      </c>
+      <c r="C26" s="5">
+        <v>636571</v>
+      </c>
+      <c r="D26" s="5">
+        <v>743840</v>
+      </c>
+      <c r="E26" s="5">
+        <v>699584</v>
+      </c>
+      <c r="F26" s="5">
+        <v>720171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5">
+        <v>95565022</v>
+      </c>
+      <c r="C27" s="5">
+        <v>95029596</v>
+      </c>
+      <c r="D27" s="5">
+        <v>95469256</v>
+      </c>
+      <c r="E27" s="5">
+        <v>91796149</v>
+      </c>
+      <c r="F27" s="5">
+        <v>87385631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5">
+        <v>202863</v>
+      </c>
+      <c r="C28" s="5">
+        <v>133800</v>
+      </c>
+      <c r="D28" s="5">
+        <v>165656</v>
+      </c>
+      <c r="E28" s="5">
+        <v>140459</v>
+      </c>
+      <c r="F28" s="5">
+        <v>192841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>42450</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C0D4CA-7A38-45A2-9AC3-490C45B17354}">
+  <dimension ref="B1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <f>Capacity!C2</f>
+        <v>8.9290000000000003</v>
+      </c>
+      <c r="D2">
+        <f>Capacity!D2</f>
+        <v>8.5289999999999999</v>
+      </c>
+      <c r="E2">
+        <f>Capacity!E2</f>
+        <v>7.3789999999999996</v>
+      </c>
+      <c r="F2">
+        <f>Capacity!F2</f>
+        <v>6.0789999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>Capacity!C3</f>
+        <v>15.648999999999999</v>
+      </c>
+      <c r="D3">
+        <f>Capacity!D3</f>
+        <v>15.648999999999999</v>
+      </c>
+      <c r="E3">
+        <f>Capacity!E3</f>
+        <v>15.648999999999999</v>
+      </c>
+      <c r="F3">
+        <f>Capacity!F3</f>
+        <v>15.648999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>Capacity!C4</f>
+        <v>13.337999999999999</v>
+      </c>
+      <c r="D4">
+        <f>Capacity!D4</f>
+        <v>12.837999999999999</v>
+      </c>
+      <c r="E4">
+        <f>Capacity!E4</f>
+        <v>12.837999999999999</v>
+      </c>
+      <c r="F4">
+        <f>Capacity!F4</f>
+        <v>12.337999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>Capacity!C5</f>
+        <v>81.382999999999996</v>
+      </c>
+      <c r="D5">
+        <f>Capacity!D5</f>
+        <v>81.382999999999996</v>
+      </c>
+      <c r="E5">
+        <f>Capacity!E5</f>
+        <v>81.382999999999996</v>
+      </c>
+      <c r="F5">
+        <f>Capacity!F5</f>
+        <v>81.382999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>Capacity!C6</f>
+        <v>12.782</v>
+      </c>
+      <c r="D6">
+        <f>Capacity!D6</f>
+        <v>12.782</v>
+      </c>
+      <c r="E6">
+        <f>Capacity!E6</f>
+        <v>12.782</v>
+      </c>
+      <c r="F6">
+        <f>Capacity!F6</f>
+        <v>12.782</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>Capacity!C7</f>
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="D7">
+        <f>Capacity!D7</f>
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="E7">
+        <f>Capacity!E7</f>
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="F7">
+        <f>Capacity!F7</f>
+        <v>2.7189999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>Capacity!C8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <f>Capacity!D8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <f>Capacity!E8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <f>Capacity!F8</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>Capacity!C9</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D9">
+        <f>Capacity!D9</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E9">
+        <f>Capacity!E9</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F9">
+        <f>Capacity!F9</f>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>Capacity!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>Capacity!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Capacity!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>Capacity!F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>Capacity!C11</f>
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="D11">
+        <f>Capacity!D11</f>
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="E11">
+        <f>Capacity!E11</f>
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="F11">
+        <f>Capacity!F11</f>
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f>Capacity!C12</f>
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="D12">
+        <f>Capacity!D12</f>
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="E12">
+        <f>Capacity!E12</f>
+        <v>6.9279999999999999</v>
+      </c>
+      <c r="F12">
+        <f>Capacity!F12</f>
+        <v>6.9279999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <f>Capacity!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>Capacity!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Capacity!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Capacity!F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <f>Capacity!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>Capacity!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>Capacity!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>Capacity!F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <f>Capacity!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>Capacity!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>Capacity!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Capacity!F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <f>Capacity!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>Capacity!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>Capacity!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>Capacity!F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <f>Capacity!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>Capacity!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>Capacity!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>Capacity!F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C1</f>
+        <v>2019</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="0">D1</f>
+        <v>2020</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <f>'2510001901-eng'!D13</f>
+        <v>44534666</v>
+      </c>
+      <c r="D20" s="5">
+        <f>'2510001901-eng'!E13</f>
+        <v>35903677</v>
+      </c>
+      <c r="E20" s="5">
+        <f>'2510001901-eng'!F13</f>
+        <v>32019134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <f>'2510001901-eng'!B23</f>
+        <v>35241667</v>
+      </c>
+      <c r="D21" s="5">
+        <f>'2510001901-eng'!C23</f>
+        <v>43484153</v>
+      </c>
+      <c r="E21" s="5">
+        <f>'2510001901-eng'!D23</f>
+        <v>45776117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C1</f>
+        <v>2019</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:F23" si="1">D1</f>
+        <v>2020</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <f>C2*1000*8760</f>
+        <v>78218040</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:F25" si="2">D2*1000*8760</f>
+        <v>74714040</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="2"/>
+        <v>64640040</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>53252040</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C3*1000*8760</f>
+        <v>137085240</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
+        <v>137085240</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>137085240</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>137085240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9">
+        <f>C20/C24/$C32</f>
+        <v>0.63262851155848732</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:F29" si="3">D20/D24/$C32</f>
+        <v>0.53394214051929789</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="3"/>
+        <v>0.55038356343151329</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <f>C21/C25/$C33</f>
+        <v>0.28564277071534305</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.35245023866577868</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.37102719608779339</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="D32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.9</v>
+      </c>
+      <c r="D33">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -567,16 +3705,16 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -689,7 +3827,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -708,16 +3846,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F2" s="9">
+        <f>calcs!C28</f>
+        <v>0.63262851155848732</v>
+      </c>
+      <c r="G2" s="9">
+        <f>calcs!D28</f>
+        <v>0.53394214051929789</v>
+      </c>
+      <c r="H2" s="9">
+        <f>calcs!E28</f>
+        <v>0.55038356343151329</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -836,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -855,15 +3994,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0.35</v>
-      </c>
-      <c r="G3">
-        <v>0.35</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F3" s="9">
+        <f>calcs!C29</f>
+        <v>0.28564277071534305</v>
+      </c>
+      <c r="G3" s="9">
+        <f>calcs!D29</f>
+        <v>0.35245023866577868</v>
+      </c>
+      <c r="H3" s="9">
+        <f>calcs!E29</f>
+        <v>0.37102719608779339</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -982,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1722,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2314,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2462,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2610,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2723,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2836,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961EB8B9-DC61-441C-B68B-619384BE9024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58E594-68FA-4EAA-80B8-5349DA98F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15060" yWindow="1575" windowWidth="13440" windowHeight="13950" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>Notes:</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>winter</t>
+  </si>
+  <si>
+    <t>2022-estimated</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,8 +397,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2573,44 +2585,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A1E322-D67D-43E7-8FAF-738EF6A1F9B9}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2618,7 +2631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2637,13 +2650,16 @@
       <c r="F10">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2663,7 +2679,7 @@
         <v>35567978</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -2682,8 +2698,11 @@
       <c r="F13" s="6">
         <v>32019134</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>27142429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2703,7 +2722,7 @@
         <v>2307444</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2723,7 +2742,7 @@
         <v>1043835</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2743,7 +2762,7 @@
         <v>197565</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2763,7 +2782,7 @@
         <v>2063452</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>2063400</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2803,7 +2822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2823,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2843,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2863,7 +2882,7 @@
         <v>55389088</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -2882,8 +2901,12 @@
       <c r="F23" s="6">
         <v>54390507</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <f>SUM(F23,F13)-G13</f>
+        <v>59267212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2903,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2923,7 +2946,7 @@
         <v>278410</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2943,27 +2966,27 @@
         <v>720171</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="11">
         <v>95565022</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <v>95029596</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="11">
         <v>95469256</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="11">
         <v>91796149</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="11">
         <v>87385631</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2983,12 +3006,12 @@
         <v>192841</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3109,23 +3132,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C0D4CA-7A38-45A2-9AC3-490C45B17354}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -3518,176 +3541,341 @@
         <f>'2510001901-eng'!F13</f>
         <v>32019134</v>
       </c>
+      <c r="F20" s="5">
+        <f>'2510001901-eng'!G13</f>
+        <v>27142429</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5">
-        <f>'2510001901-eng'!B23</f>
-        <v>35241667</v>
-      </c>
-      <c r="D21" s="5">
-        <f>'2510001901-eng'!C23</f>
-        <v>43484153</v>
-      </c>
-      <c r="E21" s="5">
         <f>'2510001901-eng'!D23</f>
         <v>45776117</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="D21" s="5">
+        <f>'2510001901-eng'!E23</f>
+        <v>47775694</v>
+      </c>
+      <c r="E21" s="5">
+        <f>'2510001901-eng'!F23</f>
+        <v>54390507</v>
+      </c>
+      <c r="F21" s="5">
+        <f>'2510001901-eng'!G23</f>
+        <v>59267212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f>'2510001901-eng'!D27</f>
+        <v>95469256</v>
+      </c>
+      <c r="D22" s="5">
+        <f>'2510001901-eng'!E27</f>
+        <v>91796149</v>
+      </c>
+      <c r="E22" s="5">
+        <f>'2510001901-eng'!F27</f>
+        <v>87385631</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <f>C1</f>
         <v>2019</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:F23" si="1">D1</f>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:F24" si="1">D1</f>
         <v>2020</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8">
-        <f>C2*1000*8760</f>
-        <v>78218040</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:F25" si="2">D2*1000*8760</f>
-        <v>74714040</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="2"/>
-        <v>64640040</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="2"/>
-        <v>53252040</v>
-      </c>
-    </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:F27" si="2">C2*1000*8760</f>
+        <v>78218040</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
+        <v>74714040</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>64640040</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>53252040</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8">
-        <f>C3*1000*8760</f>
+      <c r="C26" s="8">
+        <f t="shared" si="2"/>
         <v>137085240</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="2"/>
         <v>137085240</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <f t="shared" si="2"/>
         <v>137085240</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>137085240</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="2"/>
+        <v>116840880</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="2"/>
+        <v>112460880</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="2"/>
+        <v>112460880</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>108080880</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C29" s="1">
         <v>2019</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <v>2020</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>2021</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="9">
-        <f>C20/C24/$C32</f>
+      <c r="C30" s="9">
+        <f>C20/C25/$C40</f>
         <v>0.63262851155848732</v>
       </c>
-      <c r="D28" s="9">
-        <f t="shared" ref="D28:F29" si="3">D20/D24/$C32</f>
+      <c r="D30" s="9">
+        <f>D20/D25/$C40</f>
         <v>0.53394214051929789</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" si="3"/>
+      <c r="E30" s="9">
+        <f>E20/E25/$C40</f>
         <v>0.55038356343151329</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="9">
-        <f>C21/C25/$C33</f>
-        <v>0.28564277071534305</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="3"/>
-        <v>0.35245023866577868</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="3"/>
-        <v>0.37102719608779339</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="F30" s="9">
+        <f>F20/F25/$C40</f>
+        <v>0.56633050009810781</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="C31" s="9">
+        <f>C21/C26/$C41</f>
+        <v>0.37102719608779339</v>
+      </c>
+      <c r="D31" s="9">
+        <f>D21/D26/$C41</f>
+        <v>0.38723428171001079</v>
+      </c>
+      <c r="E31" s="9">
+        <f>E21/E26/$C41</f>
+        <v>0.44084904156469845</v>
+      </c>
+      <c r="F31" s="9">
+        <f>F21/F26/$C41</f>
+        <v>0.48037598925878361</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <f>C22/C27/$C42</f>
+        <v>0.90787531822005374</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D22/D27/$C42</f>
+        <v>0.9069440067613832</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:F32" si="3">E22/E27/$C42</f>
+        <v>0.86336818238978352</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C32">
+      <c r="C35" s="9">
+        <f>C20/C25</f>
+        <v>0.56936566040263858</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35:F35" si="4">D20/D25</f>
+        <v>0.4805479264673681</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="4"/>
+        <v>0.49534520708836194</v>
+      </c>
+      <c r="F35" s="9">
+        <f>F20/F25</f>
+        <v>0.50969745008829703</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" ref="C36:F37" si="5">C21/C26</f>
+        <v>0.33392447647901408</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="5"/>
+        <v>0.34851085353900974</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="5"/>
+        <v>0.39676413740822863</v>
+      </c>
+      <c r="F36" s="9">
+        <f>F21/F26</f>
+        <v>0.43233839033290528</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.81708778639804835</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.81624960608524488</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.7770313641508052</v>
+      </c>
+      <c r="F37" s="9">
+        <f>F22/F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
         <v>0.9</v>
       </c>
-      <c r="D32">
+      <c r="D40">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="C41">
         <v>0.9</v>
       </c>
-      <c r="D33">
+      <c r="D41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.9</v>
+      </c>
+      <c r="D42">
         <v>0.9</v>
       </c>
     </row>
@@ -3705,7 +3893,7 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,21 +4034,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F2" s="9">
-        <f>calcs!C28</f>
+      <c r="F2" s="12">
+        <f>calcs!C30</f>
         <v>0.63262851155848732</v>
       </c>
-      <c r="G2" s="9">
-        <f>calcs!D28</f>
+      <c r="G2" s="12">
+        <f>calcs!D30</f>
         <v>0.53394214051929789</v>
       </c>
-      <c r="H2" s="9">
-        <f>calcs!E28</f>
+      <c r="H2" s="12">
+        <f>calcs!E30</f>
         <v>0.55038356343151329</v>
       </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="I2" s="12">
+        <f>calcs!F30</f>
+        <v>0.56633050009810781</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
@@ -3994,17 +4182,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3" s="9">
-        <f>calcs!C29</f>
-        <v>0.28564277071534305</v>
-      </c>
-      <c r="G3" s="9">
-        <f>calcs!D29</f>
-        <v>0.35245023866577868</v>
-      </c>
-      <c r="H3" s="9">
-        <f>calcs!E29</f>
+      <c r="F3" s="12">
+        <f>calcs!C31</f>
         <v>0.37102719608779339</v>
+      </c>
+      <c r="G3" s="12">
+        <f>calcs!D31</f>
+        <v>0.38723428171001079</v>
+      </c>
+      <c r="H3" s="12">
+        <f>calcs!E31</f>
+        <v>0.44084904156469845</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
@@ -4142,20 +4330,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="F4" s="12">
+        <f>calcs!C32</f>
+        <v>0.90787531822005374</v>
+      </c>
+      <c r="G4" s="12">
+        <f>calcs!D32</f>
+        <v>0.9069440067613832</v>
+      </c>
+      <c r="H4" s="12">
+        <f>calcs!E32</f>
+        <v>0.86336818238978352</v>
+      </c>
+      <c r="I4" s="12">
         <v>1</v>
       </c>
       <c r="J4">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF58E594-68FA-4EAA-80B8-5349DA98F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E3D8F-B157-41A7-87D2-82E2B7EB13C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="1575" windowWidth="13440" windowHeight="13950" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="230" yWindow="440" windowWidth="23000" windowHeight="11640" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -747,49 +747,49 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -808,12 +808,12 @@
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -914,7 +914,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>22.199000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>6.8380000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>81.382999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>49.127000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>21.879000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>2.0649999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>26.678000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2591,39 +2591,39 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2654,12 +2654,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>35567978</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>27142429</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>2307444</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1043835</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>197565</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>2063452</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2063400</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>55389088</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>59267212</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>278410</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>720171</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>62</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>87385631</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3006,12 +3006,12 @@
         <v>192841</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>42450</v>
       </c>
@@ -3027,12 +3027,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>11</v>
       </c>
@@ -3120,12 +3120,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3144,14 +3144,14 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>6.0789999999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>15.648999999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>12.337999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>81.382999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>12.782</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>2.7189999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>3.165</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>6.9279999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>27142429</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>59267212</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>53252040</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>137085240</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>108080880</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3686,49 +3686,49 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="9">
-        <f>C20/C25/$C40</f>
+        <f t="shared" ref="C30:F31" si="3">C20/C25/$C40</f>
         <v>0.63262851155848732</v>
       </c>
       <c r="D30" s="9">
-        <f>D20/D25/$C40</f>
+        <f t="shared" si="3"/>
         <v>0.53394214051929789</v>
       </c>
       <c r="E30" s="9">
-        <f>E20/E25/$C40</f>
+        <f t="shared" si="3"/>
         <v>0.55038356343151329</v>
       </c>
       <c r="F30" s="9">
-        <f>F20/F25/$C40</f>
+        <f t="shared" si="3"/>
         <v>0.56633050009810781</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="9">
-        <f>C21/C26/$C41</f>
+        <f t="shared" si="3"/>
         <v>0.37102719608779339</v>
       </c>
       <c r="D31" s="9">
-        <f>D21/D26/$C41</f>
+        <f t="shared" si="3"/>
         <v>0.38723428171001079</v>
       </c>
       <c r="E31" s="9">
-        <f>E21/E26/$C41</f>
+        <f t="shared" si="3"/>
         <v>0.44084904156469845</v>
       </c>
       <c r="F31" s="9">
-        <f>F21/F26/$C41</f>
+        <f t="shared" si="3"/>
         <v>0.48037598925878361</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3741,18 +3741,18 @@
         <v>0.9069440067613832</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" ref="E32:F32" si="3">E22/E27/$C42</f>
+        <f t="shared" ref="E32:F32" si="4">E22/E27/$C42</f>
         <v>0.86336818238978352</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -3778,11 +3778,11 @@
         <v>0.56936566040263858</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" ref="D35:F35" si="4">D20/D25</f>
+        <f t="shared" ref="D35:E35" si="5">D20/D25</f>
         <v>0.4805479264673681</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49534520708836194</v>
       </c>
       <c r="F35" s="9">
@@ -3790,20 +3790,20 @@
         <v>0.50969745008829703</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" ref="C36:F37" si="5">C21/C26</f>
+        <f t="shared" ref="C36:E37" si="6">C21/C26</f>
         <v>0.33392447647901408</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34851085353900974</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39676413740822863</v>
       </c>
       <c r="F36" s="9">
@@ -3811,20 +3811,20 @@
         <v>0.43233839033290528</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81708778639804835</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.81624960608524488</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7770313641508052</v>
       </c>
       <c r="F37" s="9">
@@ -3832,10 +3832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>10</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>1</v>
       </c>
@@ -3893,16 +3893,16 @@
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4047,8 +4047,7 @@
         <v>0.55038356343151329</v>
       </c>
       <c r="I2" s="12">
-        <f>calcs!F30</f>
-        <v>0.56633050009810781</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
@@ -4163,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4195,8 +4194,7 @@
         <v>0.44084904156469845</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
@@ -4311,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4754,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5346,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5494,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5642,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5938,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -6051,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
